--- a/app/Licenciatura_em_Engenharia_Quimica.xlsx
+++ b/app/Licenciatura_em_Engenharia_Quimica.xlsx
@@ -29,25 +29,23 @@
     <sheet name="20151940" sheetId="19" r:id="rId22"/>
     <sheet name="20151947" sheetId="20" r:id="rId23"/>
     <sheet name="20151946" sheetId="21" r:id="rId24"/>
-    <sheet name="20154827" sheetId="22" r:id="rId25"/>
-    <sheet name="20151964" sheetId="23" r:id="rId26"/>
-    <sheet name="20151942" sheetId="24" r:id="rId27"/>
-    <sheet name="20154438" sheetId="25" r:id="rId28"/>
-    <sheet name="20151936" sheetId="26" r:id="rId29"/>
-    <sheet name="20151938" sheetId="27" r:id="rId30"/>
-    <sheet name="20151945" sheetId="28" r:id="rId31"/>
-    <sheet name="20151960" sheetId="29" r:id="rId32"/>
-    <sheet name="20151934" sheetId="30" r:id="rId33"/>
-    <sheet name="20151931" sheetId="31" r:id="rId34"/>
-    <sheet name="20151930" sheetId="32" r:id="rId35"/>
-    <sheet name="20151951" sheetId="33" r:id="rId36"/>
-    <sheet name="20151954" sheetId="34" r:id="rId37"/>
-    <sheet name="20151959" sheetId="35" r:id="rId38"/>
-    <sheet name="20151948" sheetId="36" r:id="rId39"/>
-    <sheet name="20151955" sheetId="37" r:id="rId40"/>
-    <sheet name="20151952" sheetId="38" r:id="rId41"/>
-    <sheet name="Sheet2" sheetId="39" r:id="rId42"/>
-    <sheet name="Sheet3" sheetId="40" r:id="rId43"/>
+    <sheet name="20151964" sheetId="22" r:id="rId25"/>
+    <sheet name="20151942" sheetId="23" r:id="rId26"/>
+    <sheet name="20151936" sheetId="24" r:id="rId27"/>
+    <sheet name="20151938" sheetId="25" r:id="rId28"/>
+    <sheet name="20151945" sheetId="26" r:id="rId29"/>
+    <sheet name="20151960" sheetId="27" r:id="rId30"/>
+    <sheet name="20151934" sheetId="28" r:id="rId31"/>
+    <sheet name="20151931" sheetId="29" r:id="rId32"/>
+    <sheet name="20151930" sheetId="30" r:id="rId33"/>
+    <sheet name="20151951" sheetId="31" r:id="rId34"/>
+    <sheet name="20151954" sheetId="32" r:id="rId35"/>
+    <sheet name="20151959" sheetId="33" r:id="rId36"/>
+    <sheet name="20151948" sheetId="34" r:id="rId37"/>
+    <sheet name="20151955" sheetId="35" r:id="rId38"/>
+    <sheet name="20151952" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -204,9 +202,6 @@
     <t>Ana Rita Pedro Pinto</t>
   </si>
   <si>
-    <t>Distrito de Moatize</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -243,9 +238,6 @@
     <t>Cecilia Paulo Davete</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100392811S</t>
   </si>
   <si>
@@ -270,9 +262,6 @@
     <t xml:space="preserve">Gilmeida Rosalia Guambe </t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>+846666917</t>
   </si>
   <si>
@@ -345,9 +334,6 @@
     <t>Carlota Vilanculos</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110101359513J</t>
   </si>
   <si>
@@ -369,9 +355,6 @@
     <t>Maria Ana FÃ¡tima S.buramo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100339159S</t>
   </si>
   <si>
@@ -420,9 +403,6 @@
     <t>Selvina Ernesto</t>
   </si>
   <si>
-    <t>Distrito de Jangamo</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -447,9 +427,6 @@
     <t>Leonor Nora EusÉbio OfiÇo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110102578738A</t>
   </si>
   <si>
@@ -537,9 +514,6 @@
     <t>Beatriz Adriano Maluana</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>+258845123495</t>
   </si>
   <si>
@@ -645,9 +619,6 @@
     <t>Herminia Adriano Timbe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100002766N</t>
   </si>
   <si>
@@ -669,9 +640,6 @@
     <t>Linda Bela I. Francisco</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070101422423C</t>
   </si>
   <si>
@@ -681,15 +649,6 @@
     <t>Outra - Prov. Sofala</t>
   </si>
   <si>
-    <t>Inguane</t>
-  </si>
-  <si>
-    <t>Naresse Ernestino Nordino Ernesto</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Ibraimo</t>
   </si>
   <si>
@@ -732,12 +691,6 @@
     <t>+258825443087</t>
   </si>
   <si>
-    <t>Cugala</t>
-  </si>
-  <si>
-    <t>Fainesse Sulemane D</t>
-  </si>
-  <si>
     <t>Cossa</t>
   </si>
   <si>
@@ -945,9 +898,6 @@
     <t>Susana Carlos Patricio</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060101913909C</t>
   </si>
   <si>
@@ -1015,9 +965,6 @@
   </si>
   <si>
     <t>Fernanda Joao Estevao</t>
-  </si>
-  <si>
-    <t>Cidade de Quelimane</t>
   </si>
   <si>
     <t>040101114208I</t>
@@ -2286,7 +2233,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2302,7 +2249,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2318,7 +2265,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2334,7 +2281,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2350,7 +2297,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2365,9 +2312,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2375,7 +2320,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2386,7 +2331,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2395,7 +2340,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2407,7 +2352,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2511,7 +2456,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2554,7 +2499,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2881,7 +2826,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2897,7 +2842,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2913,7 +2858,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2929,7 +2874,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2945,7 +2890,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2960,9 +2905,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2970,7 +2913,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2981,7 +2924,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2990,7 +2933,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3002,7 +2945,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3010,7 +2953,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3106,7 +3049,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3149,7 +3092,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3476,7 +3419,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3492,7 +3435,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3508,7 +3451,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3524,7 +3467,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3540,7 +3483,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3555,9 +3498,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3565,7 +3506,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3576,7 +3517,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3585,7 +3526,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3597,7 +3538,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3605,7 +3546,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3701,7 +3642,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3744,7 +3685,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4071,7 +4012,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4087,7 +4028,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4103,7 +4044,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4119,7 +4060,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4135,7 +4076,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4150,9 +4091,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4160,7 +4099,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4171,7 +4110,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4180,7 +4119,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4192,7 +4131,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4200,7 +4139,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4296,7 +4235,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4339,7 +4278,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4666,7 +4605,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4682,7 +4621,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4698,7 +4637,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4714,7 +4653,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4730,7 +4669,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4745,9 +4684,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4755,7 +4692,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4766,7 +4703,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4775,7 +4712,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4787,7 +4724,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4795,7 +4732,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4891,7 +4828,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4934,7 +4871,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5261,7 +5198,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5277,7 +5214,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5293,7 +5230,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5309,7 +5246,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5325,7 +5262,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5340,9 +5277,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5350,7 +5285,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5361,7 +5296,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5370,7 +5305,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5382,7 +5317,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5486,7 +5421,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5529,7 +5464,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5856,7 +5791,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5872,7 +5807,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5888,7 +5823,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5904,7 +5839,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5920,7 +5855,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5935,9 +5870,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5945,7 +5878,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5956,7 +5889,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5965,7 +5898,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5977,7 +5910,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5985,7 +5918,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6081,7 +6014,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6124,7 +6057,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6451,7 +6384,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6467,7 +6400,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6483,7 +6416,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6499,7 +6432,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6515,7 +6448,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6530,9 +6463,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6540,7 +6471,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6551,7 +6482,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6560,7 +6491,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6572,7 +6503,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6580,7 +6511,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6676,7 +6607,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6719,7 +6650,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7046,7 +6977,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7062,7 +6993,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7078,7 +7009,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7094,7 +7025,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7110,7 +7041,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7125,9 +7056,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7135,7 +7064,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7146,7 +7075,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7155,7 +7084,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7167,7 +7096,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7175,7 +7104,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7271,7 +7200,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7314,7 +7243,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7641,7 +7570,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7657,7 +7586,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7673,7 +7602,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7689,7 +7618,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7705,7 +7634,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7720,9 +7649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7730,7 +7657,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7741,7 +7668,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7750,7 +7677,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7762,7 +7689,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7770,7 +7697,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7866,7 +7793,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7909,7 +7836,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8315,9 +8242,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8325,7 +8250,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8336,7 +8261,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8345,7 +8270,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8357,7 +8282,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8365,7 +8290,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8461,7 +8386,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8504,7 +8429,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8831,7 +8756,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8847,7 +8772,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8863,7 +8788,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8879,7 +8804,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8895,7 +8820,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8910,9 +8835,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8920,7 +8843,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8931,7 +8854,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8940,7 +8863,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8952,7 +8875,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8960,7 +8883,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9056,7 +8979,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9099,7 +9022,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9426,7 +9349,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9442,7 +9365,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9458,7 +9381,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9474,7 +9397,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9490,7 +9413,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9505,9 +9428,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>204</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9515,7 +9436,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9526,7 +9447,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9535,7 +9456,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9547,7 +9468,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9555,7 +9476,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9651,7 +9572,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9694,7 +9615,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9945,7 +9866,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9995,7 +9918,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154827</v>
+        <v>20151964</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10019,7 +9942,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10035,7 +9958,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10050,7 +9973,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10064,7 +9989,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10078,7 +10005,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10099,7 +10028,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10108,14 +10039,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10125,13 +10060,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10226,7 +10165,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10252,7 +10191,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10266,7 +10207,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10568,7 +10511,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151964</v>
+        <v>20151942</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10592,7 +10535,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10608,7 +10551,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10624,7 +10567,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10640,7 +10583,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10656,7 +10599,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10671,9 +10614,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10681,7 +10622,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10692,7 +10633,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10701,7 +10642,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10713,7 +10654,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10721,7 +10662,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10817,7 +10758,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10860,7 +10801,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11163,7 +11104,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151942</v>
+        <v>20151936</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11187,7 +11128,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11203,7 +11144,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11219,7 +11160,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11235,7 +11176,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11251,7 +11192,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11266,9 +11207,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11276,7 +11215,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11287,7 +11226,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11296,7 +11235,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11308,7 +11247,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11316,7 +11255,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11412,7 +11351,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11455,7 +11394,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11706,7 +11645,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -11756,7 +11697,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154438</v>
+        <v>20151938</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11780,7 +11721,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11796,7 +11737,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11811,7 +11752,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11825,7 +11768,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11839,7 +11784,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11860,7 +11807,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -11869,14 +11818,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -11886,13 +11839,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -11987,7 +11944,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12013,7 +11970,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12027,7 +11986,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12329,7 +12290,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151936</v>
+        <v>20151945</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12353,7 +12314,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12369,7 +12330,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12385,7 +12346,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12401,7 +12362,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12417,7 +12378,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12432,9 +12393,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12442,7 +12401,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12453,7 +12412,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12462,7 +12421,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12474,7 +12433,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12482,7 +12441,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12578,7 +12537,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12605,7 +12564,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12621,7 +12580,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12924,7 +12883,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151938</v>
+        <v>20151960</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12948,7 +12907,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12964,7 +12923,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12980,7 +12939,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13027,9 +12986,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13037,7 +12994,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13048,7 +13005,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13057,7 +13014,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13069,15 +13026,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>238</v>
+      <c r="H17" s="20">
+        <v>7821835</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13173,7 +13130,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13200,7 +13157,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13216,7 +13173,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13519,7 +13476,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151945</v>
+        <v>20151934</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13543,7 +13500,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13559,7 +13516,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13575,7 +13532,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13591,7 +13548,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13607,7 +13564,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13622,9 +13579,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13632,7 +13587,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13643,7 +13598,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13652,7 +13607,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13664,7 +13619,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13795,7 +13750,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13811,7 +13766,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14114,7 +14069,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151960</v>
+        <v>20151931</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14138,7 +14093,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14154,7 +14109,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14170,7 +14125,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14186,7 +14141,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14202,7 +14157,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14217,9 +14172,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14227,7 +14180,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14238,7 +14191,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14247,7 +14200,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14259,15 +14212,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>7821835</v>
+      <c r="H17" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14390,7 +14343,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14406,7 +14359,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14733,7 +14686,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14749,7 +14702,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14765,7 +14718,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14781,7 +14734,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14797,7 +14750,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14812,9 +14765,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14822,7 +14773,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14833,7 +14784,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14842,7 +14793,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14854,7 +14805,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14862,7 +14813,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14958,7 +14909,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15001,7 +14952,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15304,7 +15255,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151934</v>
+        <v>20151930</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15407,9 +15358,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15417,7 +15366,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15428,7 +15377,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15437,7 +15386,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15449,7 +15398,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15457,7 +15406,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15553,7 +15502,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15596,7 +15545,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15899,7 +15848,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151931</v>
+        <v>20151951</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15923,7 +15872,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15939,7 +15888,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15955,7 +15904,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15971,7 +15920,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15987,7 +15936,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16002,9 +15951,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16012,7 +15959,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16023,7 +15970,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16032,7 +15979,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16044,7 +15991,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16052,7 +15999,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16148,7 +16095,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16191,7 +16138,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16494,7 +16441,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151930</v>
+        <v>20151954</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16518,7 +16465,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16534,7 +16481,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16550,7 +16497,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16566,7 +16513,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16582,7 +16529,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16597,9 +16544,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16607,7 +16552,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16618,7 +16563,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16627,7 +16572,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16639,7 +16584,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16647,7 +16592,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16743,7 +16688,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16786,7 +16731,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17089,7 +17034,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151951</v>
+        <v>20151959</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17192,9 +17137,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17202,7 +17145,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17213,7 +17156,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17222,7 +17165,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17234,7 +17177,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17381,7 +17324,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17684,7 +17627,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151954</v>
+        <v>20151948</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17708,7 +17651,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17724,7 +17667,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17740,7 +17683,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17756,7 +17699,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17772,7 +17715,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17787,9 +17730,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17797,7 +17738,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17808,7 +17749,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17817,7 +17758,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17829,7 +17770,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17837,7 +17778,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17933,7 +17874,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17960,7 +17901,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17976,7 +17917,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18279,7 +18220,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151959</v>
+        <v>20151955</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18303,7 +18244,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18319,7 +18260,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18335,7 +18276,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18351,7 +18292,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18367,7 +18308,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18382,9 +18323,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>296</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18392,7 +18331,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18403,7 +18342,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18412,7 +18351,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18424,7 +18363,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18571,7 +18510,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18874,7 +18813,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151948</v>
+        <v>20151952</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18898,7 +18837,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18914,7 +18853,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18930,7 +18869,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18946,7 +18885,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18962,7 +18901,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18977,9 +18916,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18987,7 +18924,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18998,7 +18935,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19007,7 +18944,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19019,7 +18956,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19027,7 +18964,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19123,7 +19060,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19150,7 +19087,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19166,7 +19103,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19369,6 +19306,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -19469,7 +19462,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151955</v>
+        <v>20151957</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19493,7 +19486,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19509,7 +19502,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19525,7 +19518,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19541,7 +19534,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>311</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19557,7 +19550,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19572,9 +19565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>204</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19582,7 +19573,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19593,7 +19584,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19602,7 +19593,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19614,15 +19605,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>313</v>
+      <c r="H17" s="20">
+        <v>100102274095</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19718,7 +19709,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19745,7 +19736,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19761,7 +19752,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19959,1252 +19950,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151952</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151957</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>100102274095</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -21334,7 +20079,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21350,7 +20095,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21366,7 +20111,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21382,7 +20127,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21398,7 +20143,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21413,9 +20158,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21423,7 +20166,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21434,7 +20177,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21443,7 +20186,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21455,7 +20198,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21463,7 +20206,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21559,7 +20302,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21602,7 +20345,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21929,7 +20672,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21945,7 +20688,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21961,7 +20704,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21977,7 +20720,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21993,7 +20736,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22008,9 +20751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22018,7 +20759,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22029,7 +20770,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22038,7 +20779,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22050,7 +20791,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22058,7 +20799,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22154,7 +20895,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22197,7 +20938,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22524,7 +21265,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22540,7 +21281,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22556,7 +21297,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22572,7 +21313,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22588,7 +21329,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22603,9 +21344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22613,7 +21352,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22624,7 +21363,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22633,7 +21372,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22645,7 +21384,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22653,7 +21392,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22749,7 +21488,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22792,7 +21531,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23119,7 +21858,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23135,7 +21874,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23151,7 +21890,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23167,7 +21906,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23183,7 +21922,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23198,9 +21937,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23208,7 +21945,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23219,7 +21956,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23228,7 +21965,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23240,7 +21977,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23248,7 +21985,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23344,7 +22081,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23387,7 +22124,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23714,7 +22451,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23730,7 +22467,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23746,7 +22483,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23762,7 +22499,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23778,7 +22515,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23793,9 +22530,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23803,7 +22538,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23814,7 +22549,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23823,7 +22558,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23835,7 +22570,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23843,7 +22578,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23939,7 +22674,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23982,7 +22717,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
